--- a/Income/TER_inc.xlsx
+++ b/Income/TER_inc.xlsx
@@ -2110,16 +2110,16 @@
         <v>0.567</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5638</v>
+        <v>0.5653</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.5721</v>
+        <v>0.5738</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.5773</v>
+        <v>0.5791</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.5818</v>
+        <v>0.5838</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.5862</v>
@@ -2364,16 +2364,16 @@
         <v>0.2887</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2791</v>
+        <v>0.2741</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2626</v>
+        <v>0.2572</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.257</v>
+        <v>0.251</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2356</v>
+        <v>0.2291</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2259</v>
@@ -2491,16 +2491,16 @@
         <v>0.2512</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2402</v>
+        <v>0.2363</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.2294</v>
+        <v>0.2252</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.218</v>
+        <v>0.2134</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2088</v>
+        <v>0.2037</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2251</v>
@@ -4243,16 +4243,16 @@
         <v>0.3292</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.3256</v>
+        <v>0.3267</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.3234</v>
+        <v>0.3246</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.3106</v>
+        <v>0.312</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2924</v>
+        <v>0.2938</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2838</v>
